--- a/college/dev/学校标识码.xlsx
+++ b/college/dev/学校标识码.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$Q$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$P$123</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="205">
   <si>
     <t>序号</t>
   </si>
@@ -634,10 +634,6 @@
   </si>
   <si>
     <t>注销时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>片区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1126,33 +1122,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S123"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="14" width="13.625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="31" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="14.625" customWidth="1"/>
-    <col min="18" max="18" width="13.75" customWidth="1"/>
-    <col min="19" max="19" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="13" width="13.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="31" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="13.75" customWidth="1"/>
+    <col min="18" max="18" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1166,52 +1162,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="N1" s="9" t="s">
+      <c r="R1" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1224,36 +1217,35 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I2" t="s">
+        <v>186</v>
+      </c>
       <c r="J2" t="s">
         <v>186</v>
       </c>
       <c r="K2" t="s">
         <v>186</v>
       </c>
-      <c r="L2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2"/>
-      <c r="O2" s="12">
+      <c r="L2" s="6"/>
+      <c r="M2"/>
+      <c r="N2" s="12">
         <v>42945</v>
       </c>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1266,34 +1258,33 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I3" t="s">
+        <v>186</v>
+      </c>
       <c r="J3" t="s">
         <v>186</v>
       </c>
       <c r="K3" t="s">
         <v>186</v>
       </c>
-      <c r="L3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1306,34 +1297,33 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I4" t="s">
+        <v>186</v>
+      </c>
       <c r="J4" t="s">
         <v>186</v>
       </c>
       <c r="K4" t="s">
         <v>186</v>
       </c>
-      <c r="L4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -1346,34 +1336,33 @@
       <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
       <c r="J5" t="s">
         <v>186</v>
       </c>
       <c r="K5" t="s">
         <v>186</v>
       </c>
-      <c r="L5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -1386,34 +1375,33 @@
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
       <c r="J6" t="s">
         <v>186</v>
       </c>
       <c r="K6" t="s">
         <v>186</v>
       </c>
-      <c r="L6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -1426,34 +1414,33 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="I7" t="s">
+        <v>186</v>
+      </c>
       <c r="J7" t="s">
         <v>186</v>
       </c>
       <c r="K7" t="s">
         <v>186</v>
       </c>
-      <c r="L7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>24</v>
       </c>
@@ -1466,34 +1453,33 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I8" t="s">
+        <v>186</v>
+      </c>
       <c r="J8" t="s">
         <v>186</v>
       </c>
       <c r="K8" t="s">
         <v>186</v>
       </c>
-      <c r="L8" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>46</v>
       </c>
@@ -1506,32 +1492,31 @@
       <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" t="s">
+        <v>186</v>
+      </c>
       <c r="K9" t="s">
         <v>186</v>
       </c>
-      <c r="L9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>93</v>
       </c>
@@ -1544,34 +1529,33 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I10" t="s">
+        <v>186</v>
+      </c>
       <c r="J10" t="s">
         <v>186</v>
       </c>
       <c r="K10" t="s">
         <v>186</v>
       </c>
-      <c r="L10" t="s">
-        <v>186</v>
-      </c>
-      <c r="M10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>94</v>
       </c>
@@ -1584,34 +1568,33 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I11" t="s">
+        <v>186</v>
+      </c>
       <c r="J11" t="s">
         <v>186</v>
       </c>
       <c r="K11" t="s">
         <v>186</v>
       </c>
-      <c r="L11" t="s">
-        <v>186</v>
-      </c>
-      <c r="M11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>405</v>
       </c>
@@ -1624,34 +1607,33 @@
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I12" t="s">
+        <v>186</v>
+      </c>
       <c r="J12" t="s">
         <v>186</v>
       </c>
       <c r="K12" t="s">
         <v>186</v>
       </c>
-      <c r="L12" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>409</v>
       </c>
@@ -1664,32 +1646,31 @@
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" t="s">
+        <v>186</v>
+      </c>
       <c r="K13" t="s">
         <v>186</v>
       </c>
-      <c r="L13" t="s">
-        <v>186</v>
-      </c>
-      <c r="M13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>519</v>
       </c>
@@ -1702,34 +1683,33 @@
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I14" t="s">
+        <v>186</v>
+      </c>
       <c r="J14" t="s">
         <v>186</v>
       </c>
       <c r="K14" t="s">
         <v>186</v>
       </c>
-      <c r="L14" t="s">
-        <v>186</v>
-      </c>
-      <c r="M14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>582</v>
       </c>
@@ -1742,34 +1722,33 @@
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I15" t="s">
+        <v>186</v>
+      </c>
       <c r="J15" t="s">
         <v>186</v>
       </c>
       <c r="K15" t="s">
         <v>186</v>
       </c>
-      <c r="L15" t="s">
-        <v>186</v>
-      </c>
-      <c r="M15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>662</v>
       </c>
@@ -1782,34 +1761,33 @@
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I16" t="s">
+        <v>186</v>
+      </c>
       <c r="J16" t="s">
         <v>186</v>
       </c>
       <c r="K16" t="s">
         <v>186</v>
       </c>
-      <c r="L16" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>663</v>
       </c>
@@ -1822,34 +1800,33 @@
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I17" t="s">
+        <v>186</v>
+      </c>
       <c r="J17" t="s">
         <v>186</v>
       </c>
       <c r="K17" t="s">
         <v>186</v>
       </c>
-      <c r="L17" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>664</v>
       </c>
@@ -1862,34 +1839,33 @@
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
       <c r="J18" t="s">
         <v>186</v>
       </c>
       <c r="K18" t="s">
         <v>186</v>
       </c>
-      <c r="L18" t="s">
-        <v>186</v>
-      </c>
-      <c r="M18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>674</v>
       </c>
@@ -1902,31 +1878,30 @@
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
       <c r="K19" t="s">
         <v>186</v>
       </c>
-      <c r="L19" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>726</v>
       </c>
@@ -1939,34 +1914,33 @@
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
       <c r="J20" t="s">
         <v>186</v>
       </c>
       <c r="K20" t="s">
         <v>186</v>
       </c>
-      <c r="L20" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>728</v>
       </c>
@@ -1979,34 +1953,33 @@
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
       <c r="J21" t="s">
         <v>186</v>
       </c>
       <c r="K21" t="s">
         <v>186</v>
       </c>
-      <c r="L21" t="s">
-        <v>186</v>
-      </c>
-      <c r="M21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>893</v>
       </c>
@@ -2019,34 +1992,33 @@
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
       <c r="J22" t="s">
         <v>186</v>
       </c>
       <c r="K22" t="s">
         <v>186</v>
       </c>
-      <c r="L22" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1001</v>
       </c>
@@ -2059,34 +2031,33 @@
       <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
       <c r="J23" t="s">
         <v>186</v>
       </c>
       <c r="K23" t="s">
         <v>186</v>
       </c>
-      <c r="L23" t="s">
-        <v>186</v>
-      </c>
-      <c r="M23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1119</v>
       </c>
@@ -2099,34 +2070,33 @@
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
       <c r="J24" t="s">
         <v>186</v>
       </c>
       <c r="K24" t="s">
         <v>186</v>
       </c>
-      <c r="L24" t="s">
-        <v>186</v>
-      </c>
-      <c r="M24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1308</v>
       </c>
@@ -2139,34 +2109,33 @@
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I25" t="s">
+        <v>186</v>
+      </c>
       <c r="J25" t="s">
         <v>186</v>
       </c>
       <c r="K25" t="s">
         <v>186</v>
       </c>
-      <c r="L25" t="s">
-        <v>186</v>
-      </c>
-      <c r="M25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1309</v>
       </c>
@@ -2179,32 +2148,31 @@
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" t="s">
+        <v>186</v>
+      </c>
       <c r="K26" t="s">
         <v>186</v>
       </c>
-      <c r="L26" t="s">
-        <v>186</v>
-      </c>
-      <c r="M26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1587</v>
       </c>
@@ -2217,34 +2185,33 @@
       <c r="D27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I27" t="s">
+        <v>186</v>
+      </c>
       <c r="J27" t="s">
         <v>186</v>
       </c>
       <c r="K27" t="s">
         <v>186</v>
       </c>
-      <c r="L27" t="s">
-        <v>186</v>
-      </c>
-      <c r="M27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1588</v>
       </c>
@@ -2257,34 +2224,33 @@
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
       <c r="J28" t="s">
         <v>186</v>
       </c>
       <c r="K28" t="s">
         <v>186</v>
       </c>
-      <c r="L28" t="s">
-        <v>186</v>
-      </c>
-      <c r="M28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1718</v>
       </c>
@@ -2297,32 +2263,31 @@
       <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" t="s">
+        <v>186</v>
+      </c>
       <c r="K29" t="s">
         <v>186</v>
       </c>
-      <c r="L29" t="s">
-        <v>186</v>
-      </c>
-      <c r="M29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1719</v>
       </c>
@@ -2335,34 +2300,33 @@
       <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I30" t="s">
+        <v>186</v>
+      </c>
       <c r="J30" t="s">
         <v>186</v>
       </c>
       <c r="K30" t="s">
         <v>186</v>
       </c>
-      <c r="L30" t="s">
-        <v>186</v>
-      </c>
-      <c r="M30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1840</v>
       </c>
@@ -2375,34 +2339,33 @@
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I31" t="s">
+        <v>186</v>
+      </c>
       <c r="J31" t="s">
         <v>186</v>
       </c>
       <c r="K31" t="s">
         <v>186</v>
       </c>
-      <c r="L31" t="s">
-        <v>186</v>
-      </c>
-      <c r="M31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1843</v>
       </c>
@@ -2415,32 +2378,31 @@
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" t="s">
+        <v>186</v>
+      </c>
       <c r="K32" t="s">
         <v>186</v>
       </c>
-      <c r="L32" t="s">
-        <v>186</v>
-      </c>
-      <c r="M32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2084</v>
       </c>
@@ -2453,34 +2415,33 @@
       <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I33" t="s">
+        <v>186</v>
+      </c>
       <c r="J33" t="s">
         <v>186</v>
       </c>
       <c r="K33" t="s">
         <v>186</v>
       </c>
-      <c r="L33" t="s">
-        <v>186</v>
-      </c>
-      <c r="M33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2149</v>
       </c>
@@ -2493,34 +2454,33 @@
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I34" t="s">
+        <v>186</v>
+      </c>
       <c r="J34" t="s">
         <v>186</v>
       </c>
       <c r="K34" t="s">
         <v>186</v>
       </c>
-      <c r="L34" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2151</v>
       </c>
@@ -2533,32 +2493,31 @@
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" t="s">
+        <v>186</v>
+      </c>
       <c r="K35" t="s">
         <v>186</v>
       </c>
-      <c r="L35" t="s">
-        <v>186</v>
-      </c>
-      <c r="M35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2413</v>
       </c>
@@ -2571,34 +2530,33 @@
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I36" t="s">
+        <v>186</v>
+      </c>
       <c r="J36" t="s">
         <v>186</v>
       </c>
       <c r="K36" t="s">
         <v>186</v>
       </c>
-      <c r="L36" t="s">
-        <v>186</v>
-      </c>
-      <c r="M36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2414</v>
       </c>
@@ -2611,34 +2569,33 @@
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I37" t="s">
+        <v>186</v>
+      </c>
       <c r="J37" t="s">
         <v>186</v>
       </c>
       <c r="K37" t="s">
         <v>186</v>
       </c>
-      <c r="L37" t="s">
-        <v>186</v>
-      </c>
-      <c r="M37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2424</v>
       </c>
@@ -2651,34 +2608,33 @@
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="I38" t="s">
+        <v>186</v>
+      </c>
       <c r="J38" t="s">
         <v>186</v>
       </c>
       <c r="K38" t="s">
         <v>186</v>
       </c>
-      <c r="L38" t="s">
-        <v>186</v>
-      </c>
-      <c r="M38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-    </row>
-    <row r="39" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2505</v>
       </c>
@@ -2691,34 +2647,33 @@
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I39" t="s">
+        <v>186</v>
+      </c>
       <c r="J39" t="s">
         <v>186</v>
       </c>
       <c r="K39" t="s">
         <v>186</v>
       </c>
-      <c r="L39" t="s">
-        <v>186</v>
-      </c>
-      <c r="M39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-    </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -2731,31 +2686,30 @@
       <c r="D40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" t="s">
-        <v>186</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" t="s">
+        <v>186</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -2768,29 +2722,28 @@
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" t="s">
-        <v>186</v>
-      </c>
-      <c r="M41" s="6"/>
+      <c r="I41" s="8"/>
+      <c r="J41" t="s">
+        <v>186</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -2803,31 +2756,30 @@
       <c r="D42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" t="s">
-        <v>186</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" t="s">
+        <v>186</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-    </row>
-    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>9</v>
       </c>
@@ -2840,24 +2792,23 @@
       <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="8"/>
-      <c r="M43" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="8"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-    </row>
-    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>10</v>
       </c>
@@ -2870,31 +2821,30 @@
       <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" t="s">
-        <v>186</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" t="s">
+        <v>186</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-    </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>11</v>
       </c>
@@ -2907,24 +2857,23 @@
       <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="8"/>
-      <c r="M45" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="8"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-    </row>
-    <row r="46" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>12</v>
       </c>
@@ -2937,24 +2886,23 @@
       <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="8"/>
-      <c r="M46" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="8"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-    </row>
-    <row r="47" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>13</v>
       </c>
@@ -2967,31 +2915,30 @@
       <c r="D47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" t="s">
-        <v>186</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" t="s">
+        <v>186</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-    </row>
-    <row r="48" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>14</v>
       </c>
@@ -3004,24 +2951,23 @@
       <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="8"/>
-      <c r="M48" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="8"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>15</v>
       </c>
@@ -3034,24 +2980,23 @@
       <c r="D49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="8"/>
-      <c r="M49" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="8"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-    </row>
-    <row r="50" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>16</v>
       </c>
@@ -3064,24 +3009,23 @@
       <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="8"/>
-      <c r="M50" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="8"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>17</v>
       </c>
@@ -3094,24 +3038,23 @@
       <c r="D51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="8"/>
-      <c r="M51" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="8"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-    </row>
-    <row r="52" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>19</v>
       </c>
@@ -3124,24 +3067,23 @@
       <c r="D52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="8"/>
-      <c r="M52" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="8"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-    </row>
-    <row r="53" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>20</v>
       </c>
@@ -3154,31 +3096,30 @@
       <c r="D53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" t="s">
-        <v>186</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" t="s">
+        <v>186</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-    </row>
-    <row r="54" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>21</v>
       </c>
@@ -3191,24 +3132,23 @@
       <c r="D54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="8"/>
-      <c r="M54" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="8"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-    </row>
-    <row r="55" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>22</v>
       </c>
@@ -3221,24 +3161,23 @@
       <c r="D55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="8"/>
-      <c r="M55" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="8"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-    </row>
-    <row r="56" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>23</v>
       </c>
@@ -3251,31 +3190,30 @@
       <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J56" s="8"/>
-      <c r="K56" t="s">
-        <v>186</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" t="s">
+        <v>186</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-    </row>
-    <row r="57" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>25</v>
       </c>
@@ -3288,24 +3226,23 @@
       <c r="D57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="8"/>
-      <c r="M57" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="8"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-    </row>
-    <row r="58" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>26</v>
       </c>
@@ -3318,24 +3255,23 @@
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="8"/>
-      <c r="M58" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="8"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-    </row>
-    <row r="59" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>27</v>
       </c>
@@ -3348,31 +3284,30 @@
       <c r="D59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J59" s="8"/>
-      <c r="K59" t="s">
-        <v>186</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" t="s">
+        <v>186</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-    </row>
-    <row r="60" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>28</v>
       </c>
@@ -3385,24 +3320,23 @@
       <c r="D60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="8"/>
-      <c r="M60" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="8"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-    </row>
-    <row r="61" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>29</v>
       </c>
@@ -3415,24 +3349,23 @@
       <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="8"/>
-      <c r="M61" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="8"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-    </row>
-    <row r="62" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>30</v>
       </c>
@@ -3445,31 +3378,30 @@
       <c r="D62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J62" s="8"/>
-      <c r="K62" t="s">
-        <v>186</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" t="s">
+        <v>186</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-    </row>
-    <row r="63" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>31</v>
       </c>
@@ -3482,31 +3414,30 @@
       <c r="D63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J63" s="8"/>
-      <c r="K63" t="s">
-        <v>186</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" t="s">
+        <v>186</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-    </row>
-    <row r="64" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>32</v>
       </c>
@@ -3519,29 +3450,28 @@
       <c r="D64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J64" s="8"/>
-      <c r="K64" t="s">
-        <v>186</v>
-      </c>
-      <c r="M64" s="6"/>
+      <c r="I64" s="8"/>
+      <c r="J64" t="s">
+        <v>186</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-    </row>
-    <row r="65" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>33</v>
       </c>
@@ -3554,24 +3484,23 @@
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="8"/>
-      <c r="M65" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="8"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-    </row>
-    <row r="66" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>34</v>
       </c>
@@ -3584,24 +3513,23 @@
       <c r="D66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="8"/>
-      <c r="M66" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="8"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-    </row>
-    <row r="67" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>35</v>
       </c>
@@ -3614,24 +3542,23 @@
       <c r="D67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="8"/>
-      <c r="M67" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="8"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-    </row>
-    <row r="68" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>36</v>
       </c>
@@ -3644,24 +3571,23 @@
       <c r="D68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="8"/>
-      <c r="M68" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="8"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-    </row>
-    <row r="69" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>37</v>
       </c>
@@ -3674,24 +3600,23 @@
       <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="8"/>
-      <c r="M69" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="8"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-    </row>
-    <row r="70" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>38</v>
       </c>
@@ -3704,29 +3629,28 @@
       <c r="D70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J70" s="8"/>
-      <c r="K70" t="s">
-        <v>186</v>
-      </c>
-      <c r="M70" s="6"/>
+      <c r="I70" s="8"/>
+      <c r="J70" t="s">
+        <v>186</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-    </row>
-    <row r="71" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>39</v>
       </c>
@@ -3739,29 +3663,28 @@
       <c r="D71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J71" s="8"/>
-      <c r="K71" t="s">
-        <v>186</v>
-      </c>
-      <c r="M71" s="6"/>
+      <c r="I71" s="8"/>
+      <c r="J71" t="s">
+        <v>186</v>
+      </c>
+      <c r="L71" s="6"/>
+      <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-    </row>
-    <row r="72" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>40</v>
       </c>
@@ -3774,24 +3697,23 @@
       <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="8"/>
-      <c r="M72" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="8"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-    </row>
-    <row r="73" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>41</v>
       </c>
@@ -3804,24 +3726,23 @@
       <c r="D73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="8"/>
-      <c r="M73" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="8"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-    </row>
-    <row r="74" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42</v>
       </c>
@@ -3834,24 +3755,23 @@
       <c r="D74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="8"/>
-      <c r="M74" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="8"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-    </row>
-    <row r="75" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43</v>
       </c>
@@ -3864,24 +3784,23 @@
       <c r="D75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="8"/>
-      <c r="M75" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="8"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-    </row>
-    <row r="76" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44</v>
       </c>
@@ -3894,24 +3813,23 @@
       <c r="D76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="8"/>
-      <c r="M76" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="8"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-    </row>
-    <row r="77" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45</v>
       </c>
@@ -3924,24 +3842,23 @@
       <c r="D77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="8"/>
-      <c r="M77" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="8"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-    </row>
-    <row r="78" spans="1:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>47</v>
       </c>
@@ -3954,31 +3871,30 @@
       <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J78" s="8"/>
-      <c r="K78" t="s">
-        <v>186</v>
-      </c>
-      <c r="M78" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" t="s">
+        <v>186</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-    </row>
-    <row r="79" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>48</v>
       </c>
@@ -3991,31 +3907,30 @@
       <c r="D79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J79" s="8"/>
-      <c r="K79" t="s">
-        <v>186</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" t="s">
+        <v>186</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-    </row>
-    <row r="80" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>49</v>
       </c>
@@ -4028,24 +3943,23 @@
       <c r="D80" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="8"/>
-      <c r="M80" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="8"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-    </row>
-    <row r="81" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>50</v>
       </c>
@@ -4058,24 +3972,23 @@
       <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="8"/>
-      <c r="M81" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="8"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-    </row>
-    <row r="82" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>51</v>
       </c>
@@ -4088,31 +4001,30 @@
       <c r="D82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I82" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J82" s="8"/>
-      <c r="K82" t="s">
-        <v>186</v>
-      </c>
-      <c r="M82" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" t="s">
+        <v>186</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M82" s="10"/>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-    </row>
-    <row r="83" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>52</v>
       </c>
@@ -4125,29 +4037,28 @@
       <c r="D83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I83" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J83" s="8"/>
-      <c r="K83" t="s">
-        <v>186</v>
-      </c>
-      <c r="M83" s="6"/>
+      <c r="I83" s="8"/>
+      <c r="J83" t="s">
+        <v>186</v>
+      </c>
+      <c r="L83" s="6"/>
+      <c r="M83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-    </row>
-    <row r="84" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>53</v>
       </c>
@@ -4160,31 +4071,30 @@
       <c r="D84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I84" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J84" s="8"/>
-      <c r="K84" t="s">
-        <v>186</v>
-      </c>
-      <c r="M84" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="I84" s="8"/>
+      <c r="J84" t="s">
+        <v>186</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-    </row>
-    <row r="85" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>54</v>
       </c>
@@ -4197,24 +4107,23 @@
       <c r="D85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="8"/>
-      <c r="M85" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="8"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-    </row>
-    <row r="86" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>55</v>
       </c>
@@ -4227,27 +4136,26 @@
       <c r="D86" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="8"/>
-      <c r="M86" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="8"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="10"/>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" t="s">
+      <c r="P86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>56</v>
       </c>
@@ -4260,24 +4168,23 @@
       <c r="D87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I87" s="1"/>
-      <c r="J87" s="8"/>
-      <c r="M87" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="8"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-    </row>
-    <row r="88" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>57</v>
       </c>
@@ -4290,24 +4197,23 @@
       <c r="D88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="8"/>
-      <c r="M88" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="8"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-    </row>
-    <row r="89" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>58</v>
       </c>
@@ -4320,24 +4226,23 @@
       <c r="D89" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="8"/>
-      <c r="M89" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="8"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-    </row>
-    <row r="90" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>59</v>
       </c>
@@ -4350,27 +4255,26 @@
       <c r="D90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="8"/>
-      <c r="M90" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="8"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" t="s">
+      <c r="P90" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>60</v>
       </c>
@@ -4383,27 +4287,26 @@
       <c r="D91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="8"/>
-      <c r="M91" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="8"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" t="s">
+      <c r="P91" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>61</v>
       </c>
@@ -4416,27 +4319,26 @@
       <c r="D92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="8"/>
-      <c r="M92" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="8"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" t="s">
+      <c r="P92" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>62</v>
       </c>
@@ -4449,27 +4351,26 @@
       <c r="D93" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="8"/>
-      <c r="M93" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="8"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="10"/>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" t="s">
+      <c r="P93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>63</v>
       </c>
@@ -4482,27 +4383,26 @@
       <c r="D94" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="8"/>
-      <c r="M94" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="8"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" t="s">
+      <c r="P94" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>64</v>
       </c>
@@ -4515,24 +4415,23 @@
       <c r="D95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I95" s="1"/>
-      <c r="J95" s="8"/>
-      <c r="M95" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="8"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-    </row>
-    <row r="96" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>65</v>
       </c>
@@ -4545,27 +4444,26 @@
       <c r="D96" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="8"/>
-      <c r="M96" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="8"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="Q96" t="s">
+      <c r="P96" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>66</v>
       </c>
@@ -4578,24 +4476,23 @@
       <c r="D97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="8"/>
-      <c r="M97" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="8"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-    </row>
-    <row r="98" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>67</v>
       </c>
@@ -4608,24 +4505,23 @@
       <c r="D98" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="8"/>
-      <c r="M98" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="8"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="10"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-    </row>
-    <row r="99" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>68</v>
       </c>
@@ -4638,24 +4534,23 @@
       <c r="D99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H99" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I99" s="1"/>
-      <c r="J99" s="8"/>
-      <c r="M99" s="6"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="8"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-    </row>
-    <row r="100" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>69</v>
       </c>
@@ -4668,24 +4563,23 @@
       <c r="D100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I100" s="1"/>
-      <c r="J100" s="8"/>
-      <c r="M100" s="6"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="8"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-    </row>
-    <row r="101" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>70</v>
       </c>
@@ -4698,24 +4592,23 @@
       <c r="D101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="8"/>
-      <c r="M101" s="6"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="8"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-    </row>
-    <row r="102" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>71</v>
       </c>
@@ -4728,24 +4621,23 @@
       <c r="D102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="8"/>
-      <c r="M102" s="6"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="8"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-    </row>
-    <row r="103" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>72</v>
       </c>
@@ -4758,24 +4650,23 @@
       <c r="D103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H103" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="8"/>
-      <c r="M103" s="6"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="8"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
-    </row>
-    <row r="104" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>73</v>
       </c>
@@ -4788,24 +4679,23 @@
       <c r="D104" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H104" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="8"/>
-      <c r="M104" s="6"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="8"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
-      <c r="P104" s="10"/>
-    </row>
-    <row r="105" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>74</v>
       </c>
@@ -4818,24 +4708,23 @@
       <c r="D105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I105" s="1"/>
-      <c r="J105" s="8"/>
-      <c r="M105" s="6"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="8"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="10"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
-      <c r="P105" s="10"/>
-    </row>
-    <row r="106" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>75</v>
       </c>
@@ -4848,24 +4737,23 @@
       <c r="D106" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="8"/>
-      <c r="M106" s="6"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="8"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="10"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-    </row>
-    <row r="107" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>76</v>
       </c>
@@ -4878,24 +4766,23 @@
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="8"/>
-      <c r="M107" s="6"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="8"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="10"/>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-    </row>
-    <row r="108" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>77</v>
       </c>
@@ -4908,27 +4795,26 @@
       <c r="D108" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I108" s="1"/>
-      <c r="J108" s="8"/>
-      <c r="M108" s="6"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="8"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" t="s">
+      <c r="P108" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>78</v>
       </c>
@@ -4941,27 +4827,26 @@
       <c r="D109" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I109" s="1"/>
-      <c r="J109" s="8"/>
-      <c r="M109" s="6"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="8"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" t="s">
+      <c r="P109" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>79</v>
       </c>
@@ -4974,27 +4859,26 @@
       <c r="D110" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I110" s="1"/>
-      <c r="J110" s="8"/>
-      <c r="M110" s="6"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="8"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" t="s">
+      <c r="P110" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>80</v>
       </c>
@@ -5007,24 +4891,23 @@
       <c r="D111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H111" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I111" s="1"/>
-      <c r="J111" s="8"/>
-      <c r="M111" s="6"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="8"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
-      <c r="P111" s="10"/>
-    </row>
-    <row r="112" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>81</v>
       </c>
@@ -5037,27 +4920,26 @@
       <c r="D112" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H112" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="8"/>
-      <c r="M112" s="6"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="8"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
-      <c r="P112" s="10"/>
-      <c r="Q112" t="s">
+      <c r="P112" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>82</v>
       </c>
@@ -5070,27 +4952,26 @@
       <c r="D113" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H113" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="8"/>
-      <c r="M113" s="6"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="8"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
-      <c r="P113" s="10"/>
-      <c r="Q113" t="s">
+      <c r="P113" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>83</v>
       </c>
@@ -5103,27 +4984,26 @@
       <c r="D114" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H114" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I114" s="1"/>
-      <c r="J114" s="8"/>
-      <c r="M114" s="6"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="8"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="10"/>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
-      <c r="P114" s="10"/>
-      <c r="Q114" t="s">
+      <c r="P114" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>84</v>
       </c>
@@ -5136,27 +5016,26 @@
       <c r="D115" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="1" t="s">
+      <c r="E115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H115" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I115" s="1"/>
-      <c r="J115" s="8"/>
-      <c r="M115" s="6"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="8"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="10"/>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
-      <c r="P115" s="10"/>
-      <c r="Q115" t="s">
+      <c r="P115" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>85</v>
       </c>
@@ -5169,24 +5048,23 @@
       <c r="D116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H116" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I116" s="1"/>
-      <c r="J116" s="8"/>
-      <c r="M116" s="6"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="8"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
-      <c r="P116" s="10"/>
-    </row>
-    <row r="117" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>86</v>
       </c>
@@ -5199,24 +5077,23 @@
       <c r="D117" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H117" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I117" s="1"/>
-      <c r="J117" s="8"/>
-      <c r="M117" s="6"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="8"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="10"/>
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
-      <c r="P117" s="10"/>
-    </row>
-    <row r="118" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>87</v>
       </c>
@@ -5229,24 +5106,23 @@
       <c r="D118" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I118" s="1"/>
-      <c r="J118" s="8"/>
-      <c r="M118" s="6"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="8"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="10"/>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
-      <c r="P118" s="10"/>
-    </row>
-    <row r="119" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>88</v>
       </c>
@@ -5259,27 +5135,26 @@
       <c r="D119" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H119" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I119" s="1"/>
-      <c r="J119" s="8"/>
-      <c r="M119" s="6"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="8"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="10"/>
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
-      <c r="P119" s="10"/>
-      <c r="Q119" t="s">
+      <c r="P119" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>89</v>
       </c>
@@ -5292,24 +5167,23 @@
       <c r="D120" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H120" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I120" s="1"/>
-      <c r="J120" s="8"/>
-      <c r="M120" s="6"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="8"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
-      <c r="P120" s="10"/>
-    </row>
-    <row r="121" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>90</v>
       </c>
@@ -5322,24 +5196,23 @@
       <c r="D121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H121" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="8"/>
-      <c r="M121" s="6"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="8"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="10"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
-      <c r="P121" s="10"/>
-    </row>
-    <row r="122" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>91</v>
       </c>
@@ -5352,24 +5225,23 @@
       <c r="D122" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H122" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="8"/>
-      <c r="M122" s="6"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="8"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="10"/>
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
-      <c r="P122" s="10"/>
-    </row>
-    <row r="123" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>92</v>
       </c>
@@ -5382,30 +5254,29 @@
       <c r="D123" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H123" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I123" s="1"/>
-      <c r="J123" s="8"/>
-      <c r="M123" s="6"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="8"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
-      <c r="P123" s="10"/>
-      <c r="Q123" t="s">
+      <c r="P123" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q123">
+  <autoFilter ref="A1:P123">
     <sortState ref="A2:N2632">
-      <sortCondition descending="1" ref="J1:J2632"/>
+      <sortCondition descending="1" ref="I1:I2632"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
